--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/9.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/9.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2576707604756606</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.602803094831753</v>
+        <v>-1.599060864370861</v>
       </c>
       <c r="F2" t="n">
-        <v>0.148463958689923</v>
+        <v>0.1529042666311123</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2445654678606161</v>
+        <v>-0.2454721028744853</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.279774982150258</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.535707381748069</v>
+        <v>-1.531359940935036</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09742481466262695</v>
+        <v>0.1013913428483047</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2481101589217852</v>
+        <v>-0.2487586547997611</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3056285899072252</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491729287498928</v>
+        <v>-1.486435074184433</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09336541934879247</v>
+        <v>0.09706593830297039</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2575558476687106</v>
+        <v>-0.2588182110039938</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3189000059719084</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.561556710767629</v>
+        <v>-1.555749367219591</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1193194206399195</v>
+        <v>0.1244239646502976</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2352094982036048</v>
+        <v>-0.2355683745632614</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.315615969392861</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.595723156824143</v>
+        <v>-1.590180248488482</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1044748463069327</v>
+        <v>0.1093905080227548</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2606141668213979</v>
+        <v>-0.2614767292998707</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3002698617663398</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.482422899444237</v>
+        <v>-1.476952395988157</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1170685732964595</v>
+        <v>0.1227051357698373</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.252396212989087</v>
+        <v>-0.2533138661368053</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2824003325902901</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.267858121895452</v>
+        <v>-1.262145219494691</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1540202461881145</v>
+        <v>0.1593231166077765</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2576927873322638</v>
+        <v>-0.2596587372147684</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2669563957850459</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.008802906873542</v>
+        <v>-1.005277891051389</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1753796856641648</v>
+        <v>0.1812177225850691</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2543527187568638</v>
+        <v>-0.2571717870031133</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2531557290956871</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5957952426258941</v>
+        <v>-0.5926865548613253</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1645346939184031</v>
+        <v>0.1700815373018667</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1631351626392463</v>
+        <v>-0.1653923060591915</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2365409350052802</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2214100725671617</v>
+        <v>-0.2199525308608372</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1347416599904236</v>
+        <v>0.1398241677331036</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1271782698322534</v>
+        <v>-0.1296368876997251</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2097170664759291</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2403583430296998</v>
+        <v>0.241102854074075</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09885402402476798</v>
+        <v>0.1050666774965418</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03785425871756067</v>
+        <v>-0.03912134411020772</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1625425062132165</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7646908706600211</v>
+        <v>0.7658871251922096</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01003032271032841</v>
+        <v>-0.003967201055078158</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05574951038794863</v>
+        <v>0.05477204451362091</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.08772695415809792</v>
       </c>
       <c r="E14" t="n">
-        <v>1.309806746767997</v>
+        <v>1.310689771495046</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2340447240538423</v>
+        <v>-0.228400291484858</v>
       </c>
       <c r="G14" t="n">
-        <v>0.159105901969037</v>
+        <v>0.1589909985731821</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.01518171051787089</v>
       </c>
       <c r="E15" t="n">
-        <v>1.871520654510088</v>
+        <v>1.872071561202543</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4462712961979353</v>
+        <v>-0.4398839266036971</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2925748533597288</v>
+        <v>0.2926708685261282</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1424050564671757</v>
       </c>
       <c r="E16" t="n">
-        <v>2.34438747893124</v>
+        <v>2.343606765447075</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6713827888689958</v>
+        <v>-0.6642162798097138</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4363064094213011</v>
+        <v>0.4371705459188952</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.281451055356836</v>
       </c>
       <c r="E17" t="n">
-        <v>2.80057442272397</v>
+        <v>2.798430608680758</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8850417184134725</v>
+        <v>-0.8773888374457085</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5546915355725685</v>
+        <v>0.5564575850266679</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4190512008097423</v>
       </c>
       <c r="E18" t="n">
-        <v>3.225452552174907</v>
+        <v>3.220884748684892</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.212532923800854</v>
+        <v>-1.205720569043865</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6762624764253484</v>
+        <v>0.6778412176040129</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5528325589345177</v>
       </c>
       <c r="E19" t="n">
-        <v>3.600218634860994</v>
+        <v>3.5950464080284</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.510657654442129</v>
+        <v>-1.50510451498218</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8370422335897284</v>
+        <v>0.8389326305544106</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6901302425452608</v>
       </c>
       <c r="E20" t="n">
-        <v>3.7276291866538</v>
+        <v>3.718750144790542</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.845483788934772</v>
+        <v>-1.841305555177279</v>
       </c>
       <c r="G20" t="n">
-        <v>1.012397407817353</v>
+        <v>1.01546831912301</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8356132334074248</v>
       </c>
       <c r="E21" t="n">
-        <v>3.978784399705901</v>
+        <v>3.968296710300675</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.080834275989893</v>
+        <v>-2.078366214007694</v>
       </c>
       <c r="G21" t="n">
-        <v>1.17953935027003</v>
+        <v>1.183540506876377</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9873697510642867</v>
       </c>
       <c r="E22" t="n">
-        <v>4.182608857780491</v>
+        <v>4.173673151228868</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.376276091038911</v>
+        <v>-2.374276299745299</v>
       </c>
       <c r="G22" t="n">
-        <v>1.319386227140233</v>
+        <v>1.32393356838167</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.141945943817605</v>
       </c>
       <c r="E23" t="n">
-        <v>4.407396102512564</v>
+        <v>4.399044357054942</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.508943866696861</v>
+        <v>-2.506016191131242</v>
       </c>
       <c r="G23" t="n">
-        <v>1.489356681953887</v>
+        <v>1.495478042316626</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.292922315457545</v>
       </c>
       <c r="E24" t="n">
-        <v>4.535714863338359</v>
+        <v>4.526620180855485</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.624776720842939</v>
+        <v>-2.620398586657041</v>
       </c>
       <c r="G24" t="n">
-        <v>1.592760294108615</v>
+        <v>1.599577370922968</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.430692858779769</v>
       </c>
       <c r="E25" t="n">
-        <v>4.676646239383138</v>
+        <v>4.667828584265612</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.820140826140538</v>
+        <v>-2.816888902635931</v>
       </c>
       <c r="G25" t="n">
-        <v>1.655933551542018</v>
+        <v>1.662777386681433</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.546597200536379</v>
       </c>
       <c r="E26" t="n">
-        <v>4.789073703160282</v>
+        <v>4.781619148601802</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.909823713614887</v>
+        <v>-2.90694640666115</v>
       </c>
       <c r="G26" t="n">
-        <v>1.699045935274444</v>
+        <v>1.705936990987498</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.635145333179434</v>
       </c>
       <c r="E27" t="n">
-        <v>4.897828980327432</v>
+        <v>4.892540276079862</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.98230257209342</v>
+        <v>-2.979727476810972</v>
       </c>
       <c r="G27" t="n">
-        <v>1.748953359553524</v>
+        <v>1.756538557699072</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.694422412678895</v>
       </c>
       <c r="E28" t="n">
-        <v>4.895932287286264</v>
+        <v>4.892515091773921</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.070147792243651</v>
+        <v>-3.069425317466974</v>
       </c>
       <c r="G28" t="n">
-        <v>1.788816967819586</v>
+        <v>1.798061182118985</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.725302500452894</v>
       </c>
       <c r="E29" t="n">
-        <v>4.903068889982242</v>
+        <v>4.90206151774461</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.082739158204496</v>
+        <v>-3.083628479008031</v>
       </c>
       <c r="G29" t="n">
-        <v>1.720301489488488</v>
+        <v>1.729156921064926</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.730543392660987</v>
       </c>
       <c r="E30" t="n">
-        <v>4.844161224367564</v>
+        <v>4.843923547480247</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.072160175690234</v>
+        <v>-3.073565774765555</v>
       </c>
       <c r="G30" t="n">
-        <v>1.684490980459776</v>
+        <v>1.692867910223338</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.712561499977301</v>
       </c>
       <c r="E31" t="n">
-        <v>4.718414410785973</v>
+        <v>4.718774861164751</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.05926817207722</v>
+        <v>-3.062743606297052</v>
       </c>
       <c r="G31" t="n">
-        <v>1.625673033935012</v>
+        <v>1.634142830826731</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.673928147427051</v>
       </c>
       <c r="E32" t="n">
-        <v>4.636352923896962</v>
+        <v>4.638990979944261</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.019687887252994</v>
+        <v>-3.024155740528805</v>
       </c>
       <c r="G32" t="n">
-        <v>1.588447481716251</v>
+        <v>1.596482849330491</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.617216431940685</v>
       </c>
       <c r="E33" t="n">
-        <v>4.557396976734276</v>
+        <v>4.561357208843469</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.950556180435906</v>
+        <v>-2.955091716533934</v>
       </c>
       <c r="G33" t="n">
-        <v>1.558764629126763</v>
+        <v>1.567412290179188</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.545143181939382</v>
       </c>
       <c r="E34" t="n">
-        <v>4.354017966071015</v>
+        <v>4.359111491947544</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.877992324924823</v>
+        <v>-2.883108674078612</v>
       </c>
       <c r="G34" t="n">
-        <v>1.508525086813087</v>
+        <v>1.517020068010747</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.461762016256785</v>
       </c>
       <c r="E35" t="n">
-        <v>4.129562839373537</v>
+        <v>4.134199899704889</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.845678499374081</v>
+        <v>-2.851708566627784</v>
       </c>
       <c r="G35" t="n">
-        <v>1.388213361257348</v>
+        <v>1.395620695242189</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.370941765897792</v>
       </c>
       <c r="E36" t="n">
-        <v>3.977553516753044</v>
+        <v>3.983413589941647</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.82001018255347</v>
+        <v>-2.826671431474815</v>
       </c>
       <c r="G36" t="n">
-        <v>1.361354298971473</v>
+        <v>1.369397536681319</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.277696368495167</v>
       </c>
       <c r="E37" t="n">
-        <v>3.781397679837431</v>
+        <v>3.787583574984143</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.75647726175085</v>
+        <v>-2.762803244599357</v>
       </c>
       <c r="G37" t="n">
-        <v>1.274710842420355</v>
+        <v>1.282124472481681</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.185186710626144</v>
       </c>
       <c r="E38" t="n">
-        <v>3.710562097321536</v>
+        <v>3.718244884652605</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.724818228154569</v>
+        <v>-2.731760439489065</v>
       </c>
       <c r="G38" t="n">
-        <v>1.231263192615092</v>
+        <v>1.23913801027896</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.09515695096552</v>
       </c>
       <c r="E39" t="n">
-        <v>3.500010281522507</v>
+        <v>3.508225087316575</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.741246265723583</v>
+        <v>-2.749596437162084</v>
       </c>
       <c r="G39" t="n">
-        <v>1.155744903213328</v>
+        <v>1.16401322565752</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.008515163174866</v>
       </c>
       <c r="E40" t="n">
-        <v>3.25355666358573</v>
+        <v>3.262600977456724</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.70556640028194</v>
+        <v>-2.715207267399907</v>
       </c>
       <c r="G40" t="n">
-        <v>1.091595753924718</v>
+        <v>1.099892408713094</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9244827865803488</v>
       </c>
       <c r="E41" t="n">
-        <v>3.081472301092169</v>
+        <v>3.090628370320775</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.644263077564642</v>
+        <v>-2.654641372640938</v>
       </c>
       <c r="G41" t="n">
-        <v>1.059594371169554</v>
+        <v>1.067965004856631</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8415327439907349</v>
       </c>
       <c r="E42" t="n">
-        <v>2.966246231317352</v>
+        <v>2.97711011129257</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.61363266546413</v>
+        <v>-2.62367569446759</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9756361912393753</v>
+        <v>0.9837754441156211</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7587064706968629</v>
       </c>
       <c r="E43" t="n">
-        <v>2.832528584905495</v>
+        <v>2.843830042196434</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.596421553382268</v>
+        <v>-2.607035164317199</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9235503244964143</v>
+        <v>0.9316675411049619</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6767516275960593</v>
       </c>
       <c r="E44" t="n">
-        <v>2.702272206541378</v>
+        <v>2.715665535244525</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.525053165393813</v>
+        <v>-2.535155220114321</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8598592147721033</v>
+        <v>0.867453857032379</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.59582749391973</v>
       </c>
       <c r="E45" t="n">
-        <v>2.506106925511037</v>
+        <v>2.518914719101061</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.459684151286195</v>
+        <v>-2.469742133471307</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8294727756353935</v>
+        <v>0.837589992243941</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5157037126085701</v>
       </c>
       <c r="E46" t="n">
-        <v>2.379596712655616</v>
+        <v>2.393227718246079</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.420498945261415</v>
+        <v>-2.430095739843985</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7663388686800229</v>
+        <v>0.7742136863438902</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4365970021616625</v>
       </c>
       <c r="E47" t="n">
-        <v>2.216200935711634</v>
+        <v>2.230260074503092</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.285878598883492</v>
+        <v>-2.294760001775431</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7102030507379551</v>
+        <v>0.7178008410364736</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3586480498375094</v>
       </c>
       <c r="E48" t="n">
-        <v>2.127879574777209</v>
+        <v>2.142409345285936</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.2452515913436</v>
+        <v>-2.253763099742033</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6614651226660007</v>
+        <v>0.6691038374616729</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.281183404450548</v>
       </c>
       <c r="E49" t="n">
-        <v>1.974351323704662</v>
+        <v>1.989244692630409</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.19331289538848</v>
+        <v>-2.201888151561326</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5874138190852884</v>
+        <v>0.5945677359916001</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.204495628381885</v>
       </c>
       <c r="E50" t="n">
-        <v>1.880250164556821</v>
+        <v>1.89627053117342</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.145871959072477</v>
+        <v>-2.154464529455657</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5308545899995908</v>
+        <v>0.5378117545157399</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1292884290095963</v>
       </c>
       <c r="E51" t="n">
-        <v>1.756028575503771</v>
+        <v>1.772423558671239</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.095689081447169</v>
+        <v>-2.104503588526453</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4863838277654825</v>
+        <v>0.4925933331990137</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.05584920519133661</v>
       </c>
       <c r="E52" t="n">
-        <v>1.643465746082195</v>
+        <v>1.661056983781851</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.978630066405597</v>
+        <v>-1.986017725151422</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4505465604117084</v>
+        <v>0.4570881838798341</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.01545978360604208</v>
       </c>
       <c r="E53" t="n">
-        <v>1.599994485990113</v>
+        <v>1.617839140768299</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.918851181207279</v>
+        <v>-1.926555217796485</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3795740382322604</v>
+        <v>0.3857693774936999</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.08465641820165756</v>
       </c>
       <c r="E54" t="n">
-        <v>1.555796029063989</v>
+        <v>1.574847956508213</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.908096695560992</v>
+        <v>-1.916283169010877</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3455421708106183</v>
+        <v>0.3513266910813983</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1514237257953811</v>
       </c>
       <c r="E55" t="n">
-        <v>1.499838075282629</v>
+        <v>1.520212178788745</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.843797227446298</v>
+        <v>-1.850943274257003</v>
       </c>
       <c r="G55" t="n">
-        <v>0.318713014888048</v>
+        <v>0.3243731876482453</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.215275459826362</v>
       </c>
       <c r="E56" t="n">
-        <v>1.442639794433683</v>
+        <v>1.462080504600868</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.78265051963157</v>
+        <v>-1.788883635351921</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2120622012860773</v>
+        <v>0.2166898175027014</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2751330203409065</v>
       </c>
       <c r="E57" t="n">
-        <v>1.45024860286605</v>
+        <v>1.472560323910488</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.779833025404442</v>
+        <v>-1.786724081117496</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2122211772173287</v>
+        <v>0.2177270961036385</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3310476284034883</v>
       </c>
       <c r="E58" t="n">
-        <v>1.434215644096482</v>
+        <v>1.458025831344397</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.765437046521025</v>
+        <v>-1.77168668944215</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2074534732989089</v>
+        <v>0.2133403048125735</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3842445337020856</v>
       </c>
       <c r="E59" t="n">
-        <v>1.422106714996315</v>
+        <v>1.44644892070723</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.729092945010193</v>
+        <v>-1.735148983579397</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1337295656954273</v>
+        <v>0.1393283517098939</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4360310947768916</v>
       </c>
       <c r="E60" t="n">
-        <v>1.45443549372871</v>
+        <v>1.47966702024316</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.761149418434602</v>
+        <v>-1.767623359080512</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1133475920937047</v>
+        <v>0.1191683148042746</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.486969712522473</v>
       </c>
       <c r="E61" t="n">
-        <v>1.451161533956405</v>
+        <v>1.477663293901744</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.779574099258988</v>
+        <v>-1.785972486987075</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1253951344481402</v>
+        <v>0.1316219540920057</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5371376949469207</v>
       </c>
       <c r="E62" t="n">
-        <v>1.460533243804629</v>
+        <v>1.488922252676408</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.822806108444632</v>
+        <v>-1.830016690039311</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03818188297511166</v>
+        <v>0.04402778999162241</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5859975563038223</v>
       </c>
       <c r="E63" t="n">
-        <v>1.445990881142932</v>
+        <v>1.475856319950491</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.783627985505898</v>
+        <v>-1.790966062649401</v>
       </c>
       <c r="G63" t="n">
-        <v>0.004312139522963459</v>
+        <v>0.009652786401536693</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6322355141159455</v>
       </c>
       <c r="E64" t="n">
-        <v>1.446713355919609</v>
+        <v>1.477642831653168</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.81116151498525</v>
+        <v>-1.818484638947101</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.0255784835905366</v>
+        <v>-0.02073680077341569</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6740516454454138</v>
       </c>
       <c r="E65" t="n">
-        <v>1.455299630226304</v>
+        <v>1.488416992538471</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.836602386042833</v>
+        <v>-1.843964860482717</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02920187560777078</v>
+        <v>-0.02368179054936927</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7109369616893977</v>
       </c>
       <c r="E66" t="n">
-        <v>1.418757202306188</v>
+        <v>1.452006782224543</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.841918635625026</v>
+        <v>-1.849235463510392</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03786999890877367</v>
+        <v>-0.03191076251552927</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7426776770458773</v>
       </c>
       <c r="E67" t="n">
-        <v>1.383733702838126</v>
+        <v>1.417765570259768</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.853870162813062</v>
+        <v>-1.860979220174417</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05675980238350323</v>
+        <v>-0.05103666885845393</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7687677160770744</v>
       </c>
       <c r="E68" t="n">
-        <v>1.333623230092397</v>
+        <v>1.367700744068557</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.884016564033773</v>
+        <v>-1.890809243551747</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06347141991672936</v>
+        <v>-0.05847548322572098</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7881498644126086</v>
       </c>
       <c r="E69" t="n">
-        <v>1.230735896209457</v>
+        <v>1.263560490965061</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.905556228699213</v>
+        <v>-1.912174979104282</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08605387225003033</v>
+        <v>-0.08067230087430327</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7992616319757413</v>
       </c>
       <c r="E70" t="n">
-        <v>1.247214302390353</v>
+        <v>1.280144356427085</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.910302683359495</v>
+        <v>-1.917512477944613</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.055324296944877</v>
+        <v>-0.04930367380590187</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8002904532711084</v>
       </c>
       <c r="E71" t="n">
-        <v>1.240346856964119</v>
+        <v>1.272851925838099</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.945393865649772</v>
+        <v>-1.951672627924641</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07459029098959742</v>
+        <v>-0.06914418482989704</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7901700024523499</v>
       </c>
       <c r="E72" t="n">
-        <v>1.224680644649813</v>
+        <v>1.256288522624652</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.974454980686347</v>
+        <v>-1.981202800659363</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1094249081631029</v>
+        <v>-0.1042463852540237</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7689702036059775</v>
       </c>
       <c r="E73" t="n">
-        <v>1.230096844446208</v>
+        <v>1.260928730994246</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.974186610426165</v>
+        <v>-1.980951744609516</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09685321744127434</v>
+        <v>-0.09152673673479282</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7378575143581286</v>
       </c>
       <c r="E74" t="n">
-        <v>1.226150778509107</v>
+        <v>1.255051343595309</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.982355769665716</v>
+        <v>-1.98888401397131</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07811924185955356</v>
+        <v>-0.07227648288128541</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6983001705019214</v>
       </c>
       <c r="E75" t="n">
-        <v>1.171821934518293</v>
+        <v>1.198909229576756</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.015018240451826</v>
+        <v>-2.021644073942942</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.05014420001667644</v>
+        <v>-0.04429199692368048</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.652619452350879</v>
       </c>
       <c r="E76" t="n">
-        <v>1.209116743578392</v>
+        <v>1.233732828616413</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.018743156702385</v>
+        <v>-2.024821231539287</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.0301573052144003</v>
+        <v>-0.0244231535555019</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.602847865997005</v>
       </c>
       <c r="E77" t="n">
-        <v>1.14699807895626</v>
+        <v>1.167331257965222</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.015854831614798</v>
+        <v>-2.022449184723487</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.03180215519615952</v>
+        <v>-0.0260380971739564</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5505094841550398</v>
       </c>
       <c r="E78" t="n">
-        <v>1.168524364459168</v>
+        <v>1.18640049961978</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.026497561903472</v>
+        <v>-2.033051777524568</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02608531774759542</v>
+        <v>-0.02104530852119062</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4974836707435121</v>
       </c>
       <c r="E79" t="n">
-        <v>1.157084393485555</v>
+        <v>1.171444169929181</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.002664551378298</v>
+        <v>-2.010197019883282</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04769345224481127</v>
+        <v>-0.04270853368765198</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4458566637089267</v>
       </c>
       <c r="E80" t="n">
-        <v>1.138748644741523</v>
+        <v>1.149315035102815</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.965776626261056</v>
+        <v>-1.971656374688674</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.03092385252647374</v>
+        <v>-0.02657011563695603</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3965863682655343</v>
       </c>
       <c r="E81" t="n">
-        <v>1.164864770002144</v>
+        <v>1.173389657563108</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.919378477612915</v>
+        <v>-1.92478208525634</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01058437744102625</v>
+        <v>-0.006937375136972556</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3500679167238932</v>
       </c>
       <c r="E82" t="n">
-        <v>1.225214237131934</v>
+        <v>1.231535497923077</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.947130795750128</v>
+        <v>-1.953177390204604</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01724428062356991</v>
+        <v>0.02079841579946686</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3060006901723234</v>
       </c>
       <c r="E83" t="n">
-        <v>1.312990987450388</v>
+        <v>1.317993220217881</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.843651630677578</v>
+        <v>-1.847988053356761</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01000379266558675</v>
+        <v>0.01315497894643072</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2634647260832967</v>
       </c>
       <c r="E84" t="n">
-        <v>1.309185009215083</v>
+        <v>1.311405950195238</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.78331632971988</v>
+        <v>-1.786953100899645</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0206599021167924</v>
+        <v>0.02357813356768388</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.222522433070742</v>
       </c>
       <c r="E85" t="n">
-        <v>1.418262960302099</v>
+        <v>1.420211595974269</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.755327908714472</v>
+        <v>-1.759074861232728</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01505796806408326</v>
+        <v>0.01711993311298715</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1847226435843854</v>
       </c>
       <c r="E86" t="n">
-        <v>1.662250090275798</v>
+        <v>1.665598028946804</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.651853465699286</v>
+        <v>-1.654297130385105</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0314183228108826</v>
+        <v>0.03280188561850591</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1522862815658677</v>
       </c>
       <c r="E87" t="n">
-        <v>1.59814029146522</v>
+        <v>1.599065814708545</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.53219889312669</v>
+        <v>-1.534461545613559</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05244249621409589</v>
+        <v>0.05354273557988507</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1276455887681838</v>
       </c>
       <c r="E88" t="n">
-        <v>1.74447055309606</v>
+        <v>1.74683000775889</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.333124824760185</v>
+        <v>-1.334384827066786</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08912028977864452</v>
+        <v>0.0902189551253124</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1127189374879059</v>
       </c>
       <c r="E89" t="n">
-        <v>1.910666510056836</v>
+        <v>1.914618872070422</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.158898222242533</v>
+        <v>-1.159126455015122</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1127746491335513</v>
+        <v>0.1139551634745268</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1093683649436409</v>
       </c>
       <c r="E90" t="n">
-        <v>1.931892157907576</v>
+        <v>1.935345555859709</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9196339366422976</v>
+        <v>-0.9184085627563651</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1414942020208036</v>
+        <v>0.142825822197424</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1190811933806318</v>
       </c>
       <c r="E91" t="n">
-        <v>1.970197487243549</v>
+        <v>1.97372014203702</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6691964763095092</v>
+        <v>-0.6656974318028577</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09507323009540372</v>
+        <v>0.09569181961007489</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1419161045804364</v>
       </c>
       <c r="E92" t="n">
-        <v>1.984646982777089</v>
+        <v>1.989932538986417</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.464496863603476</v>
+        <v>-0.4601793291537482</v>
       </c>
       <c r="G92" t="n">
-        <v>0.106198397244757</v>
+        <v>0.1070011469966203</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1733369474266517</v>
       </c>
       <c r="E93" t="n">
-        <v>1.958151518908235</v>
+        <v>1.963303283492252</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2440334493976165</v>
+        <v>-0.239440461601661</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0918480649158586</v>
+        <v>0.09196454233083486</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2060356063993491</v>
       </c>
       <c r="E94" t="n">
-        <v>1.846180520676268</v>
+        <v>1.850391021825747</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.06123159070711848</v>
+        <v>-0.05626398636029351</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06658348399986128</v>
+        <v>0.06668579524274582</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2318265114851491</v>
       </c>
       <c r="E95" t="n">
-        <v>1.794374829336898</v>
+        <v>1.79930150918657</v>
       </c>
       <c r="F95" t="n">
-        <v>0.06997864324450685</v>
+        <v>0.07493837749572532</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0538496693085387</v>
+        <v>0.05436594758032533</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.246111148128992</v>
       </c>
       <c r="E96" t="n">
-        <v>1.666794283478993</v>
+        <v>1.671055153240353</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1437954179761452</v>
+        <v>0.1478642574047075</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005338171709731057</v>
+        <v>-0.005294099174334638</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2513314417382415</v>
       </c>
       <c r="E97" t="n">
-        <v>1.501459314977568</v>
+        <v>1.505219646658356</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1487850585906684</v>
+        <v>0.1515978307604327</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02039681264321474</v>
+        <v>-0.02058412091864952</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2570272613806696</v>
       </c>
       <c r="E98" t="n">
-        <v>1.38828891417517</v>
+        <v>1.39145898868547</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1769631489001933</v>
+        <v>0.1795933348518867</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05819215978388685</v>
+        <v>-0.05886898800604615</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2699534046731206</v>
       </c>
       <c r="E99" t="n">
-        <v>1.249155067966917</v>
+        <v>1.251591649566691</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1803126615903212</v>
+        <v>0.1824722158247457</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09772994609183883</v>
+        <v>-0.0985626022070069</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2953903400452284</v>
       </c>
       <c r="E100" t="n">
-        <v>1.090553753266417</v>
+        <v>1.092222213534996</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2357291527939545</v>
+        <v>0.2386725685507868</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1446546041360549</v>
+        <v>-0.1458272483814239</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.328090471214736</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9097304366113942</v>
+        <v>0.910079868856323</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2179521808379845</v>
+        <v>0.2206783819560773</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1700828830406675</v>
+        <v>-0.1716742163723025</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3695084456923962</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8494911508200955</v>
+        <v>0.8503222329161423</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2561551989310735</v>
+        <v>0.2588546417241042</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2080387801317123</v>
+        <v>-0.2097072404002911</v>
       </c>
     </row>
   </sheetData>
